--- a/05_affordability_scrape/scrape.xlsx
+++ b/05_affordability_scrape/scrape.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/baac87ccfc410439/NCST Project/01_ReplecationPackage/ADU Replication Package/Affordability Scrape/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaa\OneDrive\NCST Project\01_ReplecationPackage\ADU Replication Package\05_affordability_scrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="478" documentId="11_F25DC773A252ABDACC10480B519F63A85ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{427C89C9-E964-4F8C-91E6-64863417BDEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384366A1-0025-4C9D-9C10-EA4B4FE48646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="160">
   <si>
     <t>address</t>
   </si>
@@ -372,10 +372,139 @@
     <t>Appartments.com</t>
   </si>
   <si>
-    <t>Appartment Finder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redfin </t>
+    <t>Appartment.com</t>
+  </si>
+  <si>
+    <t>4953 13th Ave Unit 495313th</t>
+  </si>
+  <si>
+    <t>cottage, This home is an ADU behind the main house (4120 35th Street</t>
+  </si>
+  <si>
+    <t>4116 35th St</t>
+  </si>
+  <si>
+    <t>https://www.apartments.com/4116-35th-st-sacramento-ca/f7pylhs/</t>
+  </si>
+  <si>
+    <t>https://www.apartments.com/4953-13th-ave-sacramento-ca-unit-495313th/x8phybp/</t>
+  </si>
+  <si>
+    <t>1 bedroom, cottage-style apartment</t>
+  </si>
+  <si>
+    <t>cottage</t>
+  </si>
+  <si>
+    <t>815 19th St Unit A</t>
+  </si>
+  <si>
+    <t>https://www.apartments.com/815-19th-st-sacramento-ca/j36l8m6/</t>
+  </si>
+  <si>
+    <t>4953 13th Ave</t>
+  </si>
+  <si>
+    <t>Apartment Finder</t>
+  </si>
+  <si>
+    <t>https://www.apartmentfinder.com/California/Sacramento-Apartments/Adorable-Adu-Available-Now-Apartments-m9pytbk</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/apartments/sacramento-ca/adorable-adu-available-now!/CmfDgK/</t>
+  </si>
+  <si>
+    <t>7901 &amp; 7905 Farnell Way</t>
+  </si>
+  <si>
+    <t>fully furnished ADU Casita</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/apartments/sacramento-ca/**fa790-chavez-robert-and-martha/CpbtvB/</t>
+  </si>
+  <si>
+    <t>1717 H St APT 4</t>
+  </si>
+  <si>
+    <t>Unique loft-style layout</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1717-H-St-APT-4-Sacramento-CA-95811/440040357_zpid/</t>
+  </si>
+  <si>
+    <t>New construction ADU unit</t>
+  </si>
+  <si>
+    <t>2318 Opera Aly</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2318-Opera-Aly-Sacramento-CA-95816/458511420_zpid/</t>
+  </si>
+  <si>
+    <t>6631 Medora Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cottage </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> this beautiful ADU!</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6631-Medora-Dr-North-Highlands-CA-95660/458455268_zpid/</t>
+  </si>
+  <si>
+    <t>707 Las Palmas Ave #707</t>
+  </si>
+  <si>
+    <t>Newly built ADU is a 559 sq ft detached unit</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/707-Las-Palmas-Ave-707-Sacramento-CA-95815/458646807_zpid/</t>
+  </si>
+  <si>
+    <t>ADU unit</t>
+  </si>
+  <si>
+    <t>6315 Ventura St Unit #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seems to be very similar to ^ </t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6313-Ventura-St-6315-1-Sacramento-CA-95822/457364320_zpid/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern Garden ADU</t>
+  </si>
+  <si>
+    <t>Very Private ADU</t>
+  </si>
+  <si>
+    <t>3438 Marjorie Way</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3438-Marjorie-Way-Sacramento-CA-95820/350124256_zpid/</t>
+  </si>
+  <si>
+    <t>The property has a duplex in the front. The cottage is set back and has a private patio area.</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/apartments/sacramento-ca/22nd-street/9NqVgM/</t>
+  </si>
+  <si>
+    <t>4103 22nd St</t>
+  </si>
+  <si>
+    <t>Parcel Viewer calls it a "residential conversion" but its pretty clearly an ADU. Detached cottage with private yard and off-street parking just behind the home</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2609-D-St-2611-Sacramento-CA-95816/458629391_zpid/</t>
+  </si>
+  <si>
+    <t>2609 D St #2611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcel Viewer says its mulitple single fam on one lot </t>
   </si>
 </sst>
 </file>
@@ -413,12 +542,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -434,11 +569,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,10 +591,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1869,7 +2001,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1904,7 +2036,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +2065,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1959,19 +2091,588 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36">
+        <v>2100</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>69</v>
+      </c>
+      <c r="I36">
+        <v>38</v>
+      </c>
+      <c r="J36">
+        <v>74</v>
+      </c>
+      <c r="L36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37">
+        <v>1250</v>
+      </c>
+      <c r="E37">
+        <v>600</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>70</v>
+      </c>
+      <c r="I37">
+        <v>37</v>
+      </c>
+      <c r="J37">
+        <v>61</v>
+      </c>
+      <c r="K37" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38">
+        <v>2025</v>
+      </c>
+      <c r="E38">
+        <v>735</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>98</v>
+      </c>
+      <c r="I38">
+        <v>55</v>
+      </c>
+      <c r="J38">
+        <v>99</v>
+      </c>
+      <c r="K38" t="s">
+        <v>121</v>
+      </c>
+      <c r="L38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39">
+        <v>2100</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>69</v>
+      </c>
+      <c r="I39">
+        <v>38</v>
+      </c>
+      <c r="J39">
+        <v>74</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40">
+        <v>2000</v>
+      </c>
+      <c r="E40">
+        <v>599</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>42</v>
+      </c>
+      <c r="I40">
+        <v>41</v>
+      </c>
+      <c r="J40">
+        <v>52</v>
+      </c>
+      <c r="K40" t="s">
+        <v>130</v>
+      </c>
+      <c r="L40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41">
+        <v>1695</v>
+      </c>
+      <c r="E41">
+        <v>700</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>97</v>
+      </c>
+      <c r="I41">
+        <v>57</v>
+      </c>
+      <c r="J41">
+        <v>99</v>
+      </c>
+      <c r="K41" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42">
+        <v>1400</v>
+      </c>
+      <c r="E42">
+        <v>380</v>
+      </c>
+      <c r="F42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>92</v>
+      </c>
+      <c r="I42">
+        <v>43</v>
+      </c>
+      <c r="J42">
+        <v>97</v>
+      </c>
+      <c r="K42" t="s">
+        <v>135</v>
+      </c>
+      <c r="L42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43">
+        <v>1400</v>
+      </c>
+      <c r="E43">
+        <v>540</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>39</v>
+      </c>
+      <c r="I43">
+        <v>30</v>
+      </c>
+      <c r="J43">
+        <v>51</v>
+      </c>
+      <c r="K43" t="s">
+        <v>140</v>
+      </c>
+      <c r="L43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44">
+        <v>1900</v>
+      </c>
+      <c r="E44">
+        <v>559</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>34</v>
+      </c>
+      <c r="K44" t="s">
+        <v>143</v>
+      </c>
+      <c r="L44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45">
+        <v>2000</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>46</v>
+      </c>
+      <c r="I45">
+        <v>42</v>
+      </c>
+      <c r="J45">
+        <v>64</v>
+      </c>
+      <c r="K45" t="s">
+        <v>145</v>
+      </c>
+      <c r="L45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46">
+        <v>2000</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>46</v>
+      </c>
+      <c r="I46">
+        <v>42</v>
+      </c>
+      <c r="J46">
+        <v>64</v>
+      </c>
+      <c r="K46" t="s">
+        <v>147</v>
+      </c>
+      <c r="L46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47">
+        <v>1650</v>
+      </c>
+      <c r="E47">
+        <v>400</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>69</v>
+      </c>
+      <c r="I47">
+        <v>38</v>
+      </c>
+      <c r="J47">
+        <v>86</v>
+      </c>
+      <c r="K47" t="s">
+        <v>149</v>
+      </c>
+      <c r="L47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48">
+        <v>1485</v>
+      </c>
+      <c r="E48">
+        <v>400</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>66</v>
+      </c>
+      <c r="J48">
+        <v>33</v>
+      </c>
+      <c r="K48" t="s">
+        <v>150</v>
+      </c>
+      <c r="L48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49">
+        <v>1595</v>
+      </c>
+      <c r="E49">
+        <v>400</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>77</v>
+      </c>
+      <c r="I49">
+        <v>45</v>
+      </c>
+      <c r="J49">
+        <v>95</v>
+      </c>
+      <c r="K49" t="s">
+        <v>153</v>
+      </c>
+      <c r="L49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50">
+        <v>1795</v>
+      </c>
+      <c r="E50">
+        <v>600</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>77</v>
+      </c>
+      <c r="I50">
+        <v>39</v>
+      </c>
+      <c r="J50">
+        <v>96</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51">
+        <v>1650</v>
+      </c>
+      <c r="E51">
+        <v>400</v>
+      </c>
+      <c r="F51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>69</v>
+      </c>
+      <c r="I51">
+        <v>38</v>
+      </c>
+      <c r="J51">
+        <v>86</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1988,8 +2689,10 @@
     <hyperlink ref="L30" r:id="rId10" xr:uid="{731FCD0C-5271-408A-8EB7-35C88403A6B7}"/>
     <hyperlink ref="L26" r:id="rId11" xr:uid="{5AFAF511-7564-4201-8FA9-08A8F6CD4700}"/>
     <hyperlink ref="L27" r:id="rId12" xr:uid="{7F654B20-72C1-4208-BB45-D55E88E1CEFB}"/>
+    <hyperlink ref="L39" r:id="rId13" xr:uid="{A794AFBA-AA7D-479D-84AD-B94D6EBFAE20}"/>
+    <hyperlink ref="L51" r:id="rId14" xr:uid="{2D1711D4-E348-4B48-9215-FEFC06045CB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>